--- a/_WIP/Sonja/Sonja-Zeiterfassung.xlsx
+++ b/_WIP/Sonja/Sonja-Zeiterfassung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="148">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Mo., 09.04.2018</t>
   </si>
   <si>
-    <t>(zB krank, Arzt, Arbeit, etc)</t>
-  </si>
-  <si>
     <t>Di., 10.04.2018</t>
   </si>
   <si>
@@ -441,6 +438,36 @@
   </si>
   <si>
     <t>So., 12.08.2018</t>
+  </si>
+  <si>
+    <t>Team-Besprechung</t>
+  </si>
+  <si>
+    <t>Pitch</t>
+  </si>
+  <si>
+    <t>Brainstorming</t>
+  </si>
+  <si>
+    <t>Vorbereitung der Praesentation</t>
+  </si>
+  <si>
+    <t>Start PBS/WBS</t>
+  </si>
+  <si>
+    <t>PBS/WBS</t>
+  </si>
+  <si>
+    <t>Brainstorming, Erstellung des Zeiterfassungs-Sheets</t>
+  </si>
+  <si>
+    <t>Starting Hansoft Product Backlog Creation</t>
+  </si>
+  <si>
+    <t>Hansoft PBC</t>
+  </si>
+  <si>
+    <t>Producer Meeting</t>
   </si>
 </sst>
 </file>
@@ -450,7 +477,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,8 +524,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -527,6 +561,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -666,11 +705,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -759,9 +799,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="20 % - Akzent1" xfId="1" builtinId="30"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1042,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,10 +1201,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="7">
-        <v>0.41666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="C6" s="7">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
@@ -1145,75 +1213,107 @@
         <f>(B6-C6)*-24-D6</f>
         <v>7</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
+      <c r="B7" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1.5</v>
+      </c>
       <c r="E7" s="9">
         <f t="shared" ref="E7:E12" si="0">(B7-C7)*-24-D7</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>144</v>
+      </c>
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
+        <v>12</v>
+      </c>
+      <c r="B8" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
       <c r="E8" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>141</v>
+      </c>
       <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
+        <v>13</v>
+      </c>
+      <c r="B9" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
       <c r="E9" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="12" t="s">
+        <v>141</v>
+      </c>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="B10" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1</v>
+      </c>
       <c r="E10" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="G10" s="12" t="s">
+        <v>139</v>
+      </c>
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -1228,7 +1328,7 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -1246,11 +1346,11 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="21">
         <f>SUM(E6:E12)</f>
-        <v>7</v>
+        <v>35.5</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1261,11 +1361,11 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="22">
         <f>SUM(E13)</f>
-        <v>7</v>
+        <v>35.5</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1298,120 +1398,128 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="31">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C16" s="31">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D16" s="32">
+        <v>0</v>
+      </c>
+      <c r="E16" s="33">
+        <f>(B16-C16)*-24-D16</f>
+        <v>1.9999999999999982</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="34"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="9">
-        <f>(B16-C16)*-24-D16</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33">
+        <f t="shared" ref="E17:E22" si="1">(B17-C17)*-24-D17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="9">
-        <f t="shared" ref="E17:E22" si="1">(B17-C17)*-24-D17</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="9">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="9">
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="9">
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15">
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="21">
         <f>SUM(E16:E22)</f>
-        <v>0</v>
+        <v>1.9999999999999982</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1422,11 +1530,11 @@
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" s="22">
         <f>SUM(E13+E23)</f>
-        <v>7</v>
+        <v>37.5</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -1460,82 +1568,122 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="23"/>
+        <v>26</v>
+      </c>
+      <c r="B26" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D26" s="23">
+        <v>1</v>
+      </c>
       <c r="E26" s="9">
         <f>(B26-C26)*-24-D26</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
+      <c r="G26" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C27" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
       <c r="E27" s="9">
         <f t="shared" ref="E27:E32" si="2">(B27-C27)*-24-D27</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="G27" s="12" t="s">
+        <v>140</v>
+      </c>
       <c r="H27" s="12"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="B28" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C28" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1</v>
+      </c>
       <c r="E28" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="G28" s="12" t="s">
+        <v>145</v>
+      </c>
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
+        <v>29</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C29" s="13">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1</v>
+      </c>
       <c r="E29" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
+      <c r="G29" s="12" t="s">
+        <v>146</v>
+      </c>
       <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="B30" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D30" s="14">
+        <v>2</v>
+      </c>
       <c r="E30" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+      <c r="G30" s="12" t="s">
+        <v>146</v>
+      </c>
       <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -1550,7 +1698,7 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -1568,11 +1716,11 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" s="21">
         <f>SUM(E26:E32)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1583,11 +1731,11 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E34" s="22">
         <f>SUM(E13+E23+E33)</f>
-        <v>7</v>
+        <v>75.5</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -1620,120 +1768,126 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="33">
+        <f>(B36-C36)*-24-D36</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="9">
-        <f>(B36-C36)*-24-D36</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33">
+        <f t="shared" ref="E37:E42" si="3">(B37-C37)*-24-D37</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="9">
-        <f t="shared" ref="E37:E42" si="3">(B37-C37)*-24-D37</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="B38" s="31">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C38" s="31">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D38" s="32"/>
+      <c r="E38" s="33">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="H38" s="34"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="9">
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="9">
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="9">
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="15">
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43" s="21">
         <f>SUM(E36:E42)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -1744,11 +1898,11 @@
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E44" s="22">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -1782,7 +1936,7 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -1797,7 +1951,7 @@
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -1812,7 +1966,7 @@
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -1827,7 +1981,7 @@
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -1842,7 +1996,7 @@
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -1857,7 +2011,7 @@
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -1872,7 +2026,7 @@
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -1890,7 +2044,7 @@
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53" s="21">
         <f>SUM(E46:E52)</f>
@@ -1905,11 +2059,11 @@
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E54" s="22">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -1943,7 +2097,7 @@
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -1958,7 +2112,7 @@
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -1973,7 +2127,7 @@
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -1988,7 +2142,7 @@
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -2003,7 +2157,7 @@
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -2018,7 +2172,7 @@
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -2033,7 +2187,7 @@
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -2051,7 +2205,7 @@
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E63" s="21">
         <f>SUM(E56:E62)</f>
@@ -2066,11 +2220,11 @@
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E64" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2104,7 +2258,7 @@
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -2119,7 +2273,7 @@
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -2134,7 +2288,7 @@
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -2149,7 +2303,7 @@
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -2164,7 +2318,7 @@
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -2179,7 +2333,7 @@
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -2194,7 +2348,7 @@
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -2212,7 +2366,7 @@
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E73" s="27">
         <f>SUM(E66:E72)</f>
@@ -2227,11 +2381,11 @@
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E74" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2265,7 +2419,7 @@
     </row>
     <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -2280,7 +2434,7 @@
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -2295,7 +2449,7 @@
     </row>
     <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -2310,7 +2464,7 @@
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -2325,7 +2479,7 @@
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -2340,7 +2494,7 @@
     </row>
     <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -2355,7 +2509,7 @@
     </row>
     <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -2373,7 +2527,7 @@
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E83" s="27">
         <f>SUM(E76:E82)</f>
@@ -2388,11 +2542,11 @@
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E84" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2426,7 +2580,7 @@
     </row>
     <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -2441,7 +2595,7 @@
     </row>
     <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -2456,7 +2610,7 @@
     </row>
     <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -2471,7 +2625,7 @@
     </row>
     <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -2486,7 +2640,7 @@
     </row>
     <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
@@ -2501,7 +2655,7 @@
     </row>
     <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
@@ -2516,7 +2670,7 @@
     </row>
     <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -2534,7 +2688,7 @@
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E93" s="27">
         <f>SUM(E86:E92)</f>
@@ -2549,11 +2703,11 @@
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2587,7 +2741,7 @@
     </row>
     <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -2602,7 +2756,7 @@
     </row>
     <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -2617,7 +2771,7 @@
     </row>
     <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -2632,7 +2786,7 @@
     </row>
     <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -2647,7 +2801,7 @@
     </row>
     <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -2662,7 +2816,7 @@
     </row>
     <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -2677,7 +2831,7 @@
     </row>
     <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
@@ -2695,7 +2849,7 @@
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E103" s="27">
         <f>SUM(E96:E102)</f>
@@ -2710,11 +2864,11 @@
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -2748,7 +2902,7 @@
     </row>
     <row r="106" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -2763,7 +2917,7 @@
     </row>
     <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -2778,7 +2932,7 @@
     </row>
     <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -2793,7 +2947,7 @@
     </row>
     <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -2808,7 +2962,7 @@
     </row>
     <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
@@ -2823,7 +2977,7 @@
     </row>
     <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -2838,7 +2992,7 @@
     </row>
     <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B112" s="16"/>
       <c r="C112" s="16"/>
@@ -2856,7 +3010,7 @@
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E113" s="27">
         <f>SUM(E106:E112)</f>
@@ -2871,11 +3025,11 @@
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -2909,7 +3063,7 @@
     </row>
     <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
@@ -2924,7 +3078,7 @@
     </row>
     <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
@@ -2939,7 +3093,7 @@
     </row>
     <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
@@ -2954,7 +3108,7 @@
     </row>
     <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
@@ -2969,7 +3123,7 @@
     </row>
     <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
@@ -2984,7 +3138,7 @@
     </row>
     <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
@@ -2999,7 +3153,7 @@
     </row>
     <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B122" s="16"/>
       <c r="C122" s="16"/>
@@ -3017,7 +3171,7 @@
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E123" s="27">
         <f>SUM(E116:E122)</f>
@@ -3032,11 +3186,11 @@
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3070,7 +3224,7 @@
     </row>
     <row r="126" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
@@ -3085,7 +3239,7 @@
     </row>
     <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
@@ -3100,7 +3254,7 @@
     </row>
     <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
@@ -3115,7 +3269,7 @@
     </row>
     <row r="129" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
@@ -3130,7 +3284,7 @@
     </row>
     <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
@@ -3145,7 +3299,7 @@
     </row>
     <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
@@ -3160,7 +3314,7 @@
     </row>
     <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B132" s="16"/>
       <c r="C132" s="16"/>
@@ -3178,7 +3332,7 @@
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E133" s="27">
         <f>SUM(E126:E132)</f>
@@ -3193,11 +3347,11 @@
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3231,7 +3385,7 @@
     </row>
     <row r="136" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
@@ -3246,7 +3400,7 @@
     </row>
     <row r="137" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
@@ -3261,7 +3415,7 @@
     </row>
     <row r="138" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
@@ -3276,7 +3430,7 @@
     </row>
     <row r="139" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
@@ -3291,7 +3445,7 @@
     </row>
     <row r="140" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
@@ -3306,7 +3460,7 @@
     </row>
     <row r="141" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
@@ -3321,7 +3475,7 @@
     </row>
     <row r="142" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B142" s="16"/>
       <c r="C142" s="16"/>
@@ -3339,7 +3493,7 @@
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E143" s="27">
         <f>SUM(E136:E142)</f>
@@ -3354,11 +3508,11 @@
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3392,7 +3546,7 @@
     </row>
     <row r="146" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
@@ -3407,7 +3561,7 @@
     </row>
     <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
@@ -3422,7 +3576,7 @@
     </row>
     <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
@@ -3437,7 +3591,7 @@
     </row>
     <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
@@ -3452,7 +3606,7 @@
     </row>
     <row r="150" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -3467,7 +3621,7 @@
     </row>
     <row r="151" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -3482,7 +3636,7 @@
     </row>
     <row r="152" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B152" s="16"/>
       <c r="C152" s="16"/>
@@ -3500,7 +3654,7 @@
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E153" s="27">
         <f>SUM(E146:E152)</f>
@@ -3515,11 +3669,11 @@
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3553,7 +3707,7 @@
     </row>
     <row r="156" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
@@ -3568,7 +3722,7 @@
     </row>
     <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -3583,7 +3737,7 @@
     </row>
     <row r="158" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
@@ -3598,7 +3752,7 @@
     </row>
     <row r="159" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
@@ -3613,7 +3767,7 @@
     </row>
     <row r="160" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -3628,7 +3782,7 @@
     </row>
     <row r="161" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
@@ -3643,7 +3797,7 @@
     </row>
     <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B162" s="16"/>
       <c r="C162" s="16"/>
@@ -3660,7 +3814,7 @@
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E163" s="27">
         <f>SUM(E156:E162)</f>
@@ -3675,11 +3829,11 @@
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3713,7 +3867,7 @@
     </row>
     <row r="166" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
@@ -3728,7 +3882,7 @@
     </row>
     <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
@@ -3743,7 +3897,7 @@
     </row>
     <row r="168" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
@@ -3758,7 +3912,7 @@
     </row>
     <row r="169" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
@@ -3773,7 +3927,7 @@
     </row>
     <row r="170" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
@@ -3788,7 +3942,7 @@
     </row>
     <row r="171" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
@@ -3803,7 +3957,7 @@
     </row>
     <row r="172" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B172" s="16"/>
       <c r="C172" s="16"/>
@@ -3821,7 +3975,7 @@
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E173" s="27">
         <f>SUM(E166:E172)</f>
@@ -3836,11 +3990,11 @@
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -3874,7 +4028,7 @@
     </row>
     <row r="176" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
@@ -3889,7 +4043,7 @@
     </row>
     <row r="177" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
@@ -3904,7 +4058,7 @@
     </row>
     <row r="178" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
@@ -3919,7 +4073,7 @@
     </row>
     <row r="179" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
@@ -3934,7 +4088,7 @@
     </row>
     <row r="180" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
@@ -3949,7 +4103,7 @@
     </row>
     <row r="181" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
@@ -3964,7 +4118,7 @@
     </row>
     <row r="182" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B182" s="16"/>
       <c r="C182" s="16"/>
@@ -3982,7 +4136,7 @@
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E183" s="27">
         <f>SUM(E176:E182)</f>
@@ -3997,11 +4151,11 @@
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Sonja/Sonja-Zeiterfassung.xlsx
+++ b/_WIP/Sonja/Sonja-Zeiterfassung.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="159">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -468,6 +468,39 @@
   </si>
   <si>
     <t>Producer Meeting</t>
+  </si>
+  <si>
+    <t>Product Backlog Planning</t>
+  </si>
+  <si>
+    <t>Updating backlog in Hansoft</t>
+  </si>
+  <si>
+    <t>Meeting, WBS/PBS</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Audio Research, Meeting Planning</t>
+  </si>
+  <si>
+    <t>Hansoft PBC, Start creating Presentation</t>
+  </si>
+  <si>
+    <t>Presentation Preperation</t>
+  </si>
+  <si>
+    <t>Steering Meeting, Meeting with Knut, 1 on 1 Meeting</t>
+  </si>
+  <si>
+    <t>Meeting Planning, Sprint Start Meeting, Hansoft Update</t>
+  </si>
+  <si>
+    <t>Hansoft Update, Asset Meeting</t>
+  </si>
+  <si>
+    <t>Producer Meeting, Hansoft Update</t>
   </si>
 </sst>
 </file>
@@ -1110,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,75 +1971,105 @@
       <c r="A46" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
+      <c r="B46" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C46" s="13">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="D46" s="23"/>
       <c r="E46" s="9">
         <f>(B46-C46)*-24-D46</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
+      <c r="G46" s="12" t="s">
+        <v>150</v>
+      </c>
       <c r="H46" s="12"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
+      <c r="B47" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C47" s="13">
+        <v>0.75</v>
+      </c>
       <c r="D47" s="14"/>
       <c r="E47" s="9">
         <f t="shared" ref="E47:E52" si="4">(B47-C47)*-24-D47</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
+      <c r="G47" s="12" t="s">
+        <v>148</v>
+      </c>
       <c r="H47" s="12"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
+      <c r="B48" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C48" s="13">
+        <v>0.6875</v>
+      </c>
       <c r="D48" s="14"/>
       <c r="E48" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
+      <c r="G48" s="12" t="s">
+        <v>148</v>
+      </c>
       <c r="H48" s="12"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
+      <c r="B49" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C49" s="13">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="D49" s="14"/>
       <c r="E49" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
+      <c r="G49" s="12" t="s">
+        <v>148</v>
+      </c>
       <c r="H49" s="12"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
+      <c r="B50" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C50" s="13">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D50" s="14"/>
       <c r="E50" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.9999999999999991</v>
       </c>
       <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
+      <c r="G50" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="H50" s="12"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2048,7 +2111,7 @@
       </c>
       <c r="E53" s="21">
         <f>SUM(E46:E52)</f>
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -2063,7 +2126,7 @@
       </c>
       <c r="E54" s="22">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>77</v>
+        <v>116.5</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -2096,109 +2159,109 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="9">
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="33">
         <f>(B56-C56)*-24-D56</f>
         <v>0</v>
       </c>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="9">
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="33">
         <f t="shared" ref="E57:E62" si="5">(B57-C57)*-24-D57</f>
         <v>0</v>
       </c>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="9">
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="9">
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="9">
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="33">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="15">
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="18">
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="37">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F62" s="19"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
@@ -2224,7 +2287,7 @@
       </c>
       <c r="E64" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>77</v>
+        <v>116.5</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -2256,79 +2319,109 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
+      <c r="B66" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C66" s="13">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="D66" s="23"/>
       <c r="E66" s="9">
         <f>(B66-C66)*-24-D66</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
+      <c r="G66" s="12" t="s">
+        <v>152</v>
+      </c>
       <c r="H66" s="12"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
+      <c r="B67" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C67" s="13">
+        <v>0.75</v>
+      </c>
       <c r="D67" s="14"/>
       <c r="E67" s="9">
         <f t="shared" ref="E67:E72" si="6">(B67-C67)*-24-D67</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
+      <c r="G67" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="H67" s="12"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
+      <c r="B68" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C68" s="13">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D68" s="14"/>
       <c r="E68" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6.9999999999999991</v>
       </c>
       <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
+      <c r="G68" s="12" t="s">
+        <v>154</v>
+      </c>
       <c r="H68" s="12"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
+      <c r="B69" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C69" s="13">
+        <v>0.80902777777777779</v>
+      </c>
       <c r="D69" s="14"/>
       <c r="E69" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10.416666666666668</v>
       </c>
       <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
+      <c r="G69" s="12" t="s">
+        <v>154</v>
+      </c>
       <c r="H69" s="12"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
+      <c r="B70" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C70" s="13">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="D70" s="14"/>
       <c r="E70" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
+      <c r="G70" s="12" t="s">
+        <v>151</v>
+      </c>
       <c r="H70" s="12"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2370,7 +2463,7 @@
       </c>
       <c r="E73" s="27">
         <f>SUM(E66:E72)</f>
-        <v>0</v>
+        <v>43.916666666666671</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -2385,7 +2478,7 @@
       </c>
       <c r="E74" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>77</v>
+        <v>160.41666666666669</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -2418,109 +2511,109 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="9">
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="33">
         <f>(B76-C76)*-24-D76</f>
         <v>0</v>
       </c>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="9">
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="33">
         <f t="shared" ref="E77:E82" si="7">(B77-C77)*-24-D77</f>
         <v>0</v>
       </c>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="9">
+      <c r="B78" s="31"/>
+      <c r="C78" s="31"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="9">
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="9">
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="9">
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="26">
+      <c r="B82" s="31"/>
+      <c r="C82" s="31"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
@@ -2546,7 +2639,7 @@
       </c>
       <c r="E84" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>77</v>
+        <v>160.41666666666669</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -2578,76 +2671,102 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
+      <c r="B86" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C86" s="13">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="D86" s="23"/>
       <c r="E86" s="9">
         <f>(B86-C86)*-24-D86</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
+      <c r="G86" s="12" t="s">
+        <v>156</v>
+      </c>
       <c r="H86" s="12"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
+      <c r="B87" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C87" s="13">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D87" s="14"/>
       <c r="E87" s="9">
         <f t="shared" ref="E87:E92" si="8">(B87-C87)*-24-D87</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
+      <c r="G87" s="12" t="s">
+        <v>157</v>
+      </c>
       <c r="H87" s="12"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
+      <c r="B88" s="13">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C88" s="13">
+        <v>0.75</v>
+      </c>
       <c r="D88" s="14"/>
       <c r="E88" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
+      <c r="G88" s="12" t="s">
+        <v>158</v>
+      </c>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
+      <c r="B89" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C89" s="13">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="D89" s="14"/>
       <c r="E89" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
+      <c r="G89" s="12" t="s">
+        <v>155</v>
+      </c>
       <c r="H89" s="12"/>
     </row>
     <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B90" s="13"/>
+      <c r="B90" s="13">
+        <v>0.375</v>
+      </c>
       <c r="C90" s="13"/>
       <c r="D90" s="14"/>
       <c r="E90" s="9">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="F90" s="12"/>
       <c r="G90" s="12"/>
@@ -2692,7 +2811,7 @@
       </c>
       <c r="E93" s="27">
         <f>SUM(E86:E92)</f>
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -2707,7 +2826,7 @@
       </c>
       <c r="E94" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>77</v>
+        <v>185.91666666666669</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -2868,7 +2987,7 @@
       </c>
       <c r="E104" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>77</v>
+        <v>185.91666666666669</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -3029,7 +3148,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>77</v>
+        <v>185.91666666666669</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3190,7 +3309,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>77</v>
+        <v>185.91666666666669</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3351,7 +3470,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>77</v>
+        <v>185.91666666666669</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3512,7 +3631,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>77</v>
+        <v>185.91666666666669</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3673,7 +3792,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>77</v>
+        <v>185.91666666666669</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3833,7 +3952,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>77</v>
+        <v>185.91666666666669</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -3994,7 +4113,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>77</v>
+        <v>185.91666666666669</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4155,7 +4274,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>77</v>
+        <v>185.91666666666669</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>

--- a/_WIP/Sonja/Sonja-Zeiterfassung.xlsx
+++ b/_WIP/Sonja/Sonja-Zeiterfassung.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lazarus\Documents\GitHub\Voodoo\_WIP\Sonja\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dakahna\Documents\GitHub\Voodoo\_WIP\Sonja\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="160">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -501,6 +501,9 @@
   </si>
   <si>
     <t>Producer Meeting, Hansoft Update</t>
+  </si>
+  <si>
+    <t>Hansoft Update, Meetings</t>
   </si>
 </sst>
 </file>
@@ -1143,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3023,15 +3026,21 @@
       <c r="A106" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
+      <c r="B106" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="C106" s="13">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="D106" s="23"/>
       <c r="E106" s="9">
         <f>(B106-C106)*-24-D106</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
+      <c r="G106" s="12" t="s">
+        <v>159</v>
+      </c>
       <c r="H106" s="12"/>
     </row>
     <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3133,7 +3142,7 @@
       </c>
       <c r="E113" s="27">
         <f>SUM(E106:E112)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -3148,7 +3157,7 @@
       </c>
       <c r="E114" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>185.91666666666669</v>
+        <v>193.91666666666669</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -3309,7 +3318,7 @@
       </c>
       <c r="E124" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>185.91666666666669</v>
+        <v>193.91666666666669</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -3470,7 +3479,7 @@
       </c>
       <c r="E134" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>185.91666666666669</v>
+        <v>193.91666666666669</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -3631,7 +3640,7 @@
       </c>
       <c r="E144" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>185.91666666666669</v>
+        <v>193.91666666666669</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -3792,7 +3801,7 @@
       </c>
       <c r="E154" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>185.91666666666669</v>
+        <v>193.91666666666669</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -3952,7 +3961,7 @@
       </c>
       <c r="E164" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>185.91666666666669</v>
+        <v>193.91666666666669</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -4113,7 +4122,7 @@
       </c>
       <c r="E174" s="22">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>185.91666666666669</v>
+        <v>193.91666666666669</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -4274,7 +4283,7 @@
       </c>
       <c r="E184" s="27">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>185.91666666666669</v>
+        <v>193.91666666666669</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
